--- a/weights.xlsx
+++ b/weights.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Геннадий\YandexDisk\Job\Компьютерная академия Шаг\Python web\221\projects\1\_ref1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G-Doc\YandexDisk\Job\Компьютерная академия Шаг\Python web\223\projects\1\_ref1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAB191-1F8D-4DD0-A81C-6BD965EB6438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2295" windowWidth="16065" windowHeight="12390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4635" yWindow="15" windowWidth="15540" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Веса пустых" sheetId="2" r:id="rId1"/>
     <sheet name="Партия 1" sheetId="1" r:id="rId2"/>
     <sheet name="Партия 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,54 +577,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.73046875" style="1"/>
-    <col min="5" max="7" width="4.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.73046875" style="1"/>
-    <col min="9" max="11" width="4.73046875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="4.73046875" style="1"/>
+    <col min="1" max="4" width="4.7109375" style="1"/>
+    <col min="5" max="7" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1"/>
+    <col min="9" max="11" width="4.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +697,9 @@
       <c r="O9" s="20">
         <v>2</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="15">
+        <v>4</v>
+      </c>
       <c r="R9" s="20">
         <v>1</v>
       </c>
@@ -714,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -759,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>1</v>
       </c>
@@ -797,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>0</v>
       </c>
@@ -835,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>1</v>
       </c>
@@ -880,24 +882,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.73046875" style="1"/>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -942,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -988,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1032,12 +1034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>0</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>0</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1124,13 +1126,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1224,24 +1226,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.73046875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.73046875" style="1"/>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1278,14 +1280,14 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="M2:O4" si="2">J2+J12</f>
+        <f t="shared" ref="M2:O3" si="2">J2+J12</f>
         <v>1</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1370,12 +1372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>0</v>
       </c>
@@ -1404,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>0</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>0</v>
       </c>
@@ -1462,12 +1464,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
